--- a/documentatie/Parking Squid adres.xlsx
+++ b/documentatie/Parking Squid adres.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Informatica\project\Project 3\Project-3-Data-Application\documentatie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="16260" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,14 +417,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,9 +465,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,20 +711,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -727,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -738,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -749,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -760,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -771,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -782,7 +790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -793,7 +801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -804,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -815,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -826,7 +834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -837,7 +845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -848,7 +856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -859,7 +867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -870,7 +878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -881,7 +889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -892,7 +900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -903,7 +911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -914,7 +922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -925,7 +933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -936,7 +944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -947,7 +955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -958,7 +966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -969,7 +977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -980,7 +988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -991,7 +999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -1090,7 +1098,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1098,10 +1117,10 @@
         <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -1109,10 +1128,10 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -1120,10 +1139,10 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1131,10 +1150,10 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -1142,10 +1161,10 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -1153,10 +1172,10 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -1164,10 +1183,10 @@
         <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -1175,10 +1194,10 @@
         <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -1186,10 +1205,10 @@
         <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -1197,10 +1216,10 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -1208,10 +1227,10 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -1219,10 +1238,10 @@
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -1230,10 +1249,10 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -1241,10 +1260,10 @@
         <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -1252,10 +1271,10 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -1263,10 +1282,10 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -1274,10 +1293,10 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -1285,10 +1304,10 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -1296,10 +1315,10 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -1307,21 +1326,32 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -1329,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -1340,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -1351,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1362,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -1373,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -1384,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -1395,10 +1425,10 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -1406,10 +1436,10 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -1417,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -1428,10 +1458,10 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -1439,10 +1469,10 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -1450,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -1461,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -1472,10 +1502,10 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -1483,10 +1513,10 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -1494,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -1505,21 +1535,21 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -1527,21 +1557,21 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -1549,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -1560,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -1571,10 +1601,10 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -1582,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -1593,10 +1623,10 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -1604,10 +1634,10 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -1615,10 +1645,10 @@
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -1626,10 +1656,10 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -1637,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -1648,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -1659,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -1670,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -1681,10 +1711,10 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -1692,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -1703,10 +1733,10 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -1714,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -1725,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -1736,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -1747,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -1758,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -1769,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -1780,10 +1810,10 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -1791,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -1802,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -1813,10 +1843,10 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -1824,10 +1854,10 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -1835,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -1846,10 +1876,10 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -1857,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -1868,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -1879,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -1890,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -1901,10 +1931,10 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -1912,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -1923,10 +1953,10 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -1934,138 +1964,116 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2080,7 +2088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2092,7 +2100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
